--- a/filesForTest/SSD/SSD Testing_ 12-2020.xlsx
+++ b/filesForTest/SSD/SSD Testing_ 12-2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Date added</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Comments/Notes</t>
   </si>
   <si>
-    <t>T33754503B001E6JY</t>
+    <t>FAKESERIALNUMBER1234</t>
   </si>
   <si>
     <t>Pass</t>
@@ -48,37 +48,13 @@
     <t xml:space="preserve">Passed testing</t>
   </si>
   <si>
-    <t>T33754503B009K6RY</t>
-  </si>
-  <si>
-    <t>T33754503B009K4AF</t>
-  </si>
-  <si>
-    <t>T33754503B0098B6W</t>
-  </si>
-  <si>
-    <t>T33754503B00988BC</t>
-  </si>
-  <si>
-    <t>T33754503B0098015</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t xml:space="preserve">Do not post</t>
   </si>
   <si>
-    <t>T33754503B009K6K1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Power issue do not turn on</t>
-  </si>
-  <si>
-    <t>T33754503B0098B36</t>
-  </si>
-  <si>
-    <t>T02012V90B009K09Y</t>
   </si>
   <si>
     <t xml:space="preserve">NOT TESTED</t>
@@ -87,542 +63,113 @@
     <t xml:space="preserve">Can not be tested yet</t>
   </si>
   <si>
-    <t>T33754503B00984PH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get stuck after a while on</t>
-  </si>
-  <si>
-    <t>T02012V90B009T5GG</t>
   </si>
   <si>
     <t xml:space="preserve">power issue, flashing lights</t>
   </si>
   <si>
-    <t>T02012V90B009T7VM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of Motherboards Tested</t>
-  </si>
-  <si>
-    <t>T33754503B00987B8</t>
-  </si>
-  <si>
-    <t>T33754503B009K2H5</t>
   </si>
   <si>
     <t xml:space="preserve">Power issue, do not turn on</t>
   </si>
   <si>
-    <t>T33754503B009K656</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of Motherboards Passed</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z2WE</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z3MX</t>
-  </si>
-  <si>
-    <t>T33754503B00986XP</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Motherboards Failed</t>
   </si>
   <si>
-    <t>T02012V90B009T5W9</t>
-  </si>
-  <si>
-    <t>T02012V90B009T5R3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Motherboard Can`t be tested yet</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z2T9</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z1RP</t>
   </si>
   <si>
     <t xml:space="preserve">Not Booting</t>
   </si>
   <si>
-    <t>T33754503B009K450</t>
-  </si>
-  <si>
-    <t>T33754503B009K3YN</t>
-  </si>
-  <si>
-    <t>T02012V90B00AT0K5</t>
-  </si>
-  <si>
-    <t>T33754503B009K3N0</t>
-  </si>
-  <si>
-    <t>T33754503B0098ALS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Failed test Power Led</t>
-  </si>
-  <si>
-    <t>T33754503B009K37K</t>
-  </si>
-  <si>
-    <t>Andrei</t>
-  </si>
-  <si>
-    <t>T33754503B009899E</t>
-  </si>
-  <si>
-    <t>T02012V90B009T5PX</t>
-  </si>
-  <si>
-    <t>T33754503B00983RH</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z259</t>
-  </si>
-  <si>
-    <t>T02012V90B009T5EY</t>
-  </si>
-  <si>
-    <t>T33754503B009K2SR</t>
-  </si>
-  <si>
-    <t>T02012V90B009T667</t>
   </si>
   <si>
     <t xml:space="preserve">Fan_1 Motherboard socket issue</t>
   </si>
   <si>
-    <t>T02012V90B009T801</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not Booting anymore</t>
-  </si>
-  <si>
-    <t>T33754503B004N091</t>
-  </si>
-  <si>
-    <t>T33754503B004D0P2</t>
-  </si>
-  <si>
-    <t>T33754503B0098DHH</t>
-  </si>
-  <si>
-    <t>T33754503B004N047</t>
-  </si>
-  <si>
-    <t>T33754503B00AH477</t>
-  </si>
-  <si>
-    <t>T33754503B008Z1SB</t>
-  </si>
-  <si>
-    <t>T33754503B00AH4XV</t>
-  </si>
-  <si>
-    <t>T33754503B009K21F</t>
-  </si>
-  <si>
-    <t>T33754503B006N498</t>
-  </si>
-  <si>
-    <t>T33754503B009K1N1</t>
-  </si>
-  <si>
-    <t>T33754503B007L5KH</t>
-  </si>
-  <si>
-    <t>T33754503B0098393</t>
   </si>
   <si>
     <t xml:space="preserve">Do not post-also bent pins on 
 CPU1 socket</t>
   </si>
   <si>
-    <t>T33754503B003G08Z</t>
-  </si>
-  <si>
-    <t>T33754503B009K3WW</t>
-  </si>
-  <si>
-    <t>T33754503B009K03A</t>
-  </si>
-  <si>
     <t xml:space="preserve">No Power LED Activity</t>
-  </si>
-  <si>
-    <t>T33754503B006N49E</t>
-  </si>
-  <si>
-    <t>T33754503B008Z1D9</t>
   </si>
   <si>
     <t xml:space="preserve">Damaged Pins on socket 1</t>
   </si>
   <si>
-    <t>T02012V90B009K0N7</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOBO stoped working after a while</t>
-  </si>
-  <si>
-    <t>T33754503B0098A95</t>
   </si>
   <si>
     <t xml:space="preserve">NO POST</t>
   </si>
   <si>
-    <t>T33754503B0098AEZ</t>
-  </si>
-  <si>
-    <t>T33754503B009K5G9</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOBO serial doesn’t match</t>
-  </si>
-  <si>
-    <t>T33754503B009872R</t>
   </si>
   <si>
     <t xml:space="preserve">Sensor failior tested 4 times</t>
   </si>
   <si>
-    <t>T33754503B00463A5</t>
-  </si>
-  <si>
-    <t>T02012V90B009F3G8</t>
-  </si>
-  <si>
-    <t>T33754503B004Y1S4</t>
-  </si>
-  <si>
-    <t>T02012V90B009T6PV</t>
-  </si>
-  <si>
-    <t>T33754503B004N0NL</t>
-  </si>
-  <si>
-    <t>T33754503B009K2MR</t>
-  </si>
-  <si>
-    <t>T02012V90B009T5MA</t>
-  </si>
-  <si>
-    <t>T33754503B00986KF</t>
-  </si>
-  <si>
-    <t>T02012V90B009T6FB</t>
-  </si>
-  <si>
-    <t>T02012V90B009K03Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Power issue, flashing lights</t>
-  </si>
-  <si>
-    <t>T33754503B009X6GT</t>
   </si>
   <si>
     <t xml:space="preserve">Could not insert module</t>
   </si>
   <si>
-    <t>T02012V90B009T5XP</t>
-  </si>
-  <si>
     <t xml:space="preserve">ERROR CPU CATERR</t>
-  </si>
-  <si>
-    <t>T33754503B009K305</t>
-  </si>
-  <si>
-    <t>T33754503B00986YG</t>
-  </si>
-  <si>
-    <t>T33754503B008Z1BC</t>
-  </si>
-  <si>
-    <t>T33754503B00982ML</t>
-  </si>
-  <si>
-    <t>T02012V90B009T7GZ</t>
-  </si>
-  <si>
-    <t>T02012V90B009F0ZZ</t>
-  </si>
-  <si>
-    <t>T02012V90B009T5FD</t>
-  </si>
-  <si>
-    <t>T33754503B00AH4YK</t>
-  </si>
-  <si>
-    <t>T33754503B009K1ST</t>
   </si>
   <si>
     <t xml:space="preserve">Bricked- flashing lights</t>
   </si>
   <si>
-    <t>T02012V90B008Z1NZ</t>
-  </si>
-  <si>
-    <t>T33754403B00715BK</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bent pins CPU0 socket</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z2GV</t>
-  </si>
-  <si>
-    <t>T33754503B008Z130</t>
-  </si>
-  <si>
-    <t>T33754403B00710L6</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z1PD</t>
-  </si>
-  <si>
-    <t>T33754503B008Z0ZR</t>
-  </si>
-  <si>
-    <t>T02012V90B008H4K5</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z38K</t>
-  </si>
-  <si>
-    <t>T33754403B00710SR</t>
-  </si>
-  <si>
-    <t>T33754503B00465MM</t>
   </si>
   <si>
     <t xml:space="preserve">Do not Boot</t>
   </si>
   <si>
-    <t>T33754503B004D09N</t>
-  </si>
-  <si>
     <t>fail</t>
-  </si>
-  <si>
-    <t>T33754503B00261ML</t>
-  </si>
-  <si>
-    <t>T33754503B004N03X</t>
-  </si>
-  <si>
-    <t>T33754503B001E1NG</t>
-  </si>
-  <si>
-    <t>T33754503B00282AY</t>
-  </si>
-  <si>
-    <t>T33754503B005S6M6</t>
-  </si>
-  <si>
-    <t>T33754503B004D1XX</t>
-  </si>
-  <si>
-    <t>T33754503B003G15F</t>
-  </si>
-  <si>
-    <t>T33754503B00461G6</t>
-  </si>
-  <si>
-    <t>T33754503B004609X</t>
   </si>
   <si>
     <t xml:space="preserve">FAN socket 3, sensor error</t>
   </si>
   <si>
-    <t>T33754503B004610T</t>
-  </si>
-  <si>
-    <t>T33754503B0028195</t>
-  </si>
-  <si>
-    <t>T33754503B002829T</t>
-  </si>
-  <si>
-    <t>T33754503B002826C</t>
-  </si>
-  <si>
-    <t>T33754503B005S52T</t>
-  </si>
-  <si>
-    <t>T33754503B00282LY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eroor with the TEMP sensors</t>
-  </si>
-  <si>
-    <t>T33754503B004D09V</t>
-  </si>
-  <si>
-    <t>T33754503B00989S7</t>
   </si>
   <si>
     <t xml:space="preserve">Fan 6A lower RPMs even after swapping</t>
   </si>
   <si>
-    <t>T33754503B00983T2</t>
-  </si>
-  <si>
-    <t>T33754403B00717M0</t>
-  </si>
-  <si>
-    <t>T33754503B006N447</t>
-  </si>
-  <si>
-    <t>T33754403B00710P2</t>
-  </si>
-  <si>
-    <t>T33754503B00985S5</t>
-  </si>
-  <si>
-    <t>T33754503B00985NN</t>
-  </si>
-  <si>
-    <t>T33754503B0098ACY</t>
-  </si>
-  <si>
-    <t>T33754503B00983RD</t>
-  </si>
-  <si>
-    <t>T33754503B001E6GP</t>
-  </si>
-  <si>
-    <t>T33754503B004L20C</t>
-  </si>
-  <si>
-    <t>T33754503B008Z58C</t>
-  </si>
-  <si>
-    <t>T33754503B008Z264</t>
-  </si>
-  <si>
-    <t>T33754503B004L271</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cater CPU</t>
-  </si>
-  <si>
-    <t>T33754503B004L1ZL</t>
-  </si>
-  <si>
-    <t>T33754503B008Z2KT</t>
   </si>
   <si>
     <t xml:space="preserve">K2t-qb module test(7out of 8 controllers)</t>
   </si>
   <si>
-    <t>T33754503B004L1YG</t>
-  </si>
-  <si>
-    <t>T33754503B008Z1MM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not Posting</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z32A</t>
-  </si>
-  <si>
-    <t>T33754503B008V0T9</t>
-  </si>
-  <si>
-    <t>T33754503B008Z1A1</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z2T1</t>
-  </si>
-  <si>
-    <t>T33754503B008Z176</t>
-  </si>
-  <si>
-    <t>T33754503B009859M</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z1R0</t>
-  </si>
-  <si>
-    <t>T33754503B008Z111</t>
-  </si>
-  <si>
-    <t>T33754503B00986JC</t>
-  </si>
-  <si>
-    <t>T33754503B008Z0FP</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z3BN</t>
-  </si>
-  <si>
-    <t>T33754503B009854Y</t>
-  </si>
-  <si>
-    <t>T33754503B008Z6NA</t>
-  </si>
-  <si>
-    <t>T33754503B007C1XD</t>
   </si>
   <si>
     <t xml:space="preserve">Power issue, does not turn on</t>
   </si>
   <si>
-    <t>T33754503B007C1YS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not posting</t>
-  </si>
-  <si>
-    <t>T33754503B007C31Z</t>
-  </si>
-  <si>
-    <t>T33754503B007C32D</t>
-  </si>
-  <si>
-    <t>T33754503B007L5RL</t>
-  </si>
-  <si>
-    <t>T33754503B008V3J0</t>
   </si>
   <si>
     <t xml:space="preserve">Faulty BMC does not update</t>
   </si>
   <si>
-    <t>T33754503B008V38E</t>
-  </si>
-  <si>
-    <t>T33754503B008M0CN</t>
-  </si>
-  <si>
-    <t>T33754503B007C2V2</t>
-  </si>
-  <si>
-    <t>T33754503B0098CHA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Riser slot 2 faulty</t>
   </si>
   <si>
-    <t>T33754503B008Z19X</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not posting with Annapurnas</t>
-  </si>
-  <si>
-    <t>T02012V90B008Z1RK</t>
-  </si>
-  <si>
-    <t>T33754503B008V02N</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +1837,7 @@
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="14.42578125"/>
-    <col customWidth="1" min="2" max="2" style="2" width="26"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="2" width="30.421875"/>
     <col bestFit="1" customWidth="1" min="3" max="3" style="3" width="14.85546875"/>
     <col customWidth="1" min="4" max="4" style="2" width="16"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="2" width="8.7109375"/>
@@ -2350,7 +1897,7 @@
         <v>44166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>44166</v>
@@ -2370,7 +1917,7 @@
         <v>44166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>44166</v>
@@ -2390,7 +1937,7 @@
         <v>44167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>44167</v>
@@ -2410,7 +1957,7 @@
         <v>44167</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>44167</v>
@@ -2430,13 +1977,13 @@
         <v>44167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>44167</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -2445,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="15">
@@ -2453,13 +2000,13 @@
         <v>44167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>44167</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -2468,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="15">
@@ -2476,7 +2023,7 @@
         <v>44167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>44167</v>
@@ -2497,20 +2044,20 @@
         <v>44167</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>44167</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15">
@@ -2518,13 +2065,13 @@
         <v>44167</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>44167</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
@@ -2533,12 +2080,14 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="15">
       <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2550,13 +2099,13 @@
         <v>44168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>44168</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -2565,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="15">
@@ -2573,7 +2122,7 @@
         <v>44168</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>44168</v>
@@ -2589,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="15">
@@ -2597,13 +2146,13 @@
         <v>44168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <v>44168</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -2612,11 +2161,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8">
         <f>COUNTIF(B2:B99880, "*T*")</f>
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="20.25" customHeight="1">
@@ -2624,13 +2173,13 @@
         <v>44168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <v>44168</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -2639,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -2648,7 +2197,7 @@
         <v>44168</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3">
         <v>44168</v>
@@ -2664,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="15">
@@ -2672,13 +2221,13 @@
         <v>44168</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
         <v>44168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -2687,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8">
         <f>COUNTIF(D2:D99882,"Pass")</f>
@@ -2700,7 +2249,7 @@
         <v>44168</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <v>44168</v>
@@ -2721,7 +2270,7 @@
         <v>44168</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3">
         <v>44168</v>
@@ -2737,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="15">
@@ -2745,13 +2294,13 @@
         <v>44169</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3">
         <v>44169</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>9</v>
@@ -2760,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I21" s="8">
         <f>COUNTIF(D2:D99885,"Fail")</f>
@@ -2773,7 +2322,7 @@
         <v>44169</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3">
         <v>44169</v>
@@ -2791,14 +2340,16 @@
     </row>
     <row r="23" ht="15">
       <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="I23" s="12" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="15">
@@ -2806,7 +2357,7 @@
         <v>44169</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3">
         <v>44169</v>
@@ -2832,13 +2383,13 @@
         <v>44169</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>44169</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
@@ -2847,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="15">
@@ -2855,13 +2406,13 @@
         <v>44169</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
         <v>44169</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -2870,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="15">
@@ -2878,7 +2429,7 @@
         <v>44169</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
         <v>44169</v>
@@ -2899,7 +2450,7 @@
         <v>44169</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3">
         <v>44169</v>
@@ -2919,7 +2470,7 @@
         <v>44169</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3">
         <v>44169</v>
@@ -2939,13 +2490,13 @@
         <v>44169</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3">
         <v>44169</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -2954,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="15">
@@ -2962,7 +2513,7 @@
         <v>44169</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3">
         <v>44169</v>
@@ -2971,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>10</v>
@@ -2982,7 +2533,7 @@
         <v>44169</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3">
         <v>44169</v>
@@ -2991,7 +2542,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>10</v>
@@ -3002,7 +2553,7 @@
         <v>44169</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3">
         <v>44169</v>
@@ -3015,6 +2566,11 @@
       </c>
       <c r="G33" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="15">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" ht="15">
@@ -3022,7 +2578,7 @@
         <v>44172</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3">
         <v>44172</v>
@@ -3042,7 +2598,7 @@
         <v>44172</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3">
         <v>44172</v>
@@ -3062,7 +2618,7 @@
         <v>44172</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C37" s="3">
         <v>44172</v>
@@ -3082,7 +2638,7 @@
         <v>44172</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C38" s="3">
         <v>44172</v>
@@ -3102,13 +2658,13 @@
         <v>44172</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C39" s="3">
         <v>44172</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
@@ -3117,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="15">
@@ -3125,13 +2681,13 @@
         <v>44172</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3">
         <v>44172</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
@@ -3140,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="15">
@@ -3148,7 +2704,7 @@
         <v>44172</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3">
         <v>44172</v>
@@ -3168,7 +2724,7 @@
         <v>44172</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3">
         <v>44172</v>
@@ -3177,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>10</v>
@@ -3188,22 +2744,22 @@
         <v>44172</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3">
         <v>44172</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="15">
@@ -3211,7 +2767,7 @@
         <v>44172</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C44" s="3">
         <v>44172</v>
@@ -3220,10 +2776,15 @@
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="45" ht="15">
+      <c r="B45" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" ht="15">
@@ -3231,7 +2792,7 @@
         <v>44173</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3">
         <v>44173</v>
@@ -3252,7 +2813,7 @@
         <v>44173</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3">
         <v>44173</v>
@@ -3273,7 +2834,7 @@
         <v>44173</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C48" s="3">
         <v>44173</v>
@@ -3294,22 +2855,22 @@
         <v>44174</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C49" s="3">
         <v>44174</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="15">
@@ -3317,22 +2878,22 @@
         <v>44174</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C50" s="3">
         <v>44174</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="15">
@@ -3340,7 +2901,7 @@
         <v>44174</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C51" s="3">
         <v>44174</v>
@@ -3349,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>10</v>
@@ -3360,7 +2921,7 @@
         <v>44174</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C52" s="3">
         <v>44174</v>
@@ -3369,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>10</v>
@@ -3380,22 +2941,22 @@
         <v>44175</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C53" s="3">
         <v>44175</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F53" s="2">
         <v>1</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="15">
@@ -3403,7 +2964,7 @@
         <v>44175</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C54" s="3">
         <v>44175</v>
@@ -3412,10 +2973,15 @@
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="15">
+      <c r="B55" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="15">
@@ -3423,7 +2989,7 @@
         <v>44175</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C56" s="3">
         <v>44175</v>
@@ -3432,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>10</v>
@@ -3443,22 +3009,22 @@
         <v>44175</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3">
         <v>44175</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F57" s="2">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="15">
@@ -3466,7 +3032,7 @@
         <v>44175</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3">
         <v>44175</v>
@@ -3475,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>10</v>
@@ -3486,13 +3052,13 @@
         <v>44176</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C59" s="3">
         <v>44176</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
@@ -3501,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="15">
@@ -3509,13 +3075,13 @@
         <v>44176</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C60" s="3">
         <v>44176</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
@@ -3524,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="15">
@@ -3532,13 +3098,13 @@
         <v>44176</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3">
         <v>44176</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>9</v>
@@ -3547,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="15">
@@ -3555,22 +3121,22 @@
         <v>44176</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C62" s="3">
         <v>44176</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="15">
@@ -3578,22 +3144,22 @@
         <v>44176</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3">
         <v>44176</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="15">
@@ -3601,22 +3167,22 @@
         <v>44176</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3">
         <v>44176</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -3624,22 +3190,27 @@
         <v>44176</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C65" s="3">
         <v>44176</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="B66" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3647,7 +3218,7 @@
         <v>44176</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C67" s="3">
         <v>44176</v>
@@ -3656,7 +3227,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>10</v>
@@ -3667,13 +3238,13 @@
         <v>44179</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3">
         <v>44179</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
@@ -3682,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
@@ -3690,7 +3261,7 @@
         <v>44179</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C69" s="3">
         <v>44179</v>
@@ -3710,7 +3281,7 @@
         <v>44179</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C70" s="3">
         <v>44179</v>
@@ -3730,7 +3301,7 @@
         <v>44179</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="C71" s="3">
         <v>44179</v>
@@ -3750,7 +3321,7 @@
         <v>44180</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3">
         <v>44180</v>
@@ -3759,7 +3330,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>10</v>
@@ -3770,22 +3341,22 @@
         <v>44179</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C73" s="3">
         <v>44179</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -3793,22 +3364,22 @@
         <v>44179</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C74" s="3">
         <v>44179</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -3816,22 +3387,22 @@
         <v>44179</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C75" s="3">
         <v>44179</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -3839,22 +3410,27 @@
         <v>44179</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="C76" s="3">
         <v>44179</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="B77" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -3862,22 +3438,22 @@
         <v>44179</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C78" s="3">
         <v>44179</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
@@ -3885,7 +3461,7 @@
         <v>44179</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C79" s="3">
         <v>44179</v>
@@ -3894,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>10</v>
@@ -3905,7 +3481,7 @@
         <v>44180</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C80" s="3">
         <v>44180</v>
@@ -3925,7 +3501,7 @@
         <v>44180</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C81" s="3">
         <v>44180</v>
@@ -3945,7 +3521,7 @@
         <v>44180</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C82" s="3">
         <v>44180</v>
@@ -3965,22 +3541,22 @@
         <v>44180</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="C83" s="3">
         <v>44180</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -3988,7 +3564,7 @@
         <v>44180</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C84" s="3">
         <v>44180</v>
@@ -3997,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>10</v>
@@ -4008,22 +3584,22 @@
         <v>44180</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C85" s="3">
         <v>44180</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -4031,7 +3607,7 @@
         <v>44180</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="C86" s="3">
         <v>44180</v>
@@ -4040,7 +3616,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>10</v>
@@ -4051,22 +3627,27 @@
         <v>44180</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C87" s="3">
         <v>44180</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="B88" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -4074,19 +3655,19 @@
         <v>44180</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C89" s="3">
         <v>44180</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -4094,19 +3675,19 @@
         <v>44180</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="C90" s="3">
         <v>44180</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
@@ -4114,7 +3695,7 @@
         <v>44180</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="C91" s="3">
         <v>44180</v>
@@ -4123,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>10</v>
@@ -4134,7 +3715,7 @@
         <v>44180</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C92" s="3">
         <v>44180</v>
@@ -4143,7 +3724,7 @@
         <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>10</v>
@@ -4154,19 +3735,19 @@
         <v>44180</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="C93" s="3">
         <v>44180</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -4174,20 +3755,20 @@
         <v>44180</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="C94" s="3">
         <v>44180</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -4195,19 +3776,19 @@
         <v>44180</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="C95" s="3">
         <v>44180</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -4215,19 +3796,19 @@
         <v>44181</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C96" s="3">
         <v>44181</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
@@ -4235,7 +3816,7 @@
         <v>44181</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="C97" s="3">
         <v>44181</v>
@@ -4255,7 +3836,7 @@
         <v>44181</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="C98" s="3">
         <v>44181</v>
@@ -4268,6 +3849,11 @@
       </c>
       <c r="G98" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="B99" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -4275,13 +3861,13 @@
         <v>44181</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="C100" s="3">
         <v>44181</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>9</v>
@@ -4290,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101">
@@ -4298,13 +3884,13 @@
         <v>44181</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C101" s="3">
         <v>44181</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>9</v>
@@ -4313,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
@@ -4321,7 +3907,7 @@
         <v>44181</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="C102" s="3">
         <v>44181</v>
@@ -4341,7 +3927,7 @@
         <v>44181</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C103" s="3">
         <v>44181</v>
@@ -4350,7 +3936,7 @@
         <v>8</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>10</v>
@@ -4361,7 +3947,7 @@
         <v>44181</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="C104" s="3">
         <v>44181</v>
@@ -4370,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>10</v>
@@ -4381,22 +3967,22 @@
         <v>44181</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C105" s="3">
         <v>44181</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -4404,22 +3990,22 @@
         <v>44181</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="C106" s="3">
         <v>44181</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -4427,7 +4013,7 @@
         <v>44181</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C107" s="3">
         <v>44181</v>
@@ -4436,10 +4022,15 @@
         <v>8</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="B108" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -4447,7 +4038,7 @@
         <v>44181</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C109" s="3">
         <v>44181</v>
@@ -4456,7 +4047,7 @@
         <v>8</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>10</v>
@@ -4467,7 +4058,7 @@
         <v>44181</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C110" s="3">
         <v>44181</v>
@@ -4476,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>10</v>
@@ -4487,22 +4078,22 @@
         <v>44181</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="C111" s="3">
         <v>44181</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
@@ -4510,7 +4101,7 @@
         <v>44182</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="C112" s="3">
         <v>44182</v>
@@ -4530,7 +4121,7 @@
         <v>44182</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="C113" s="3">
         <v>44182</v>
@@ -4550,7 +4141,7 @@
         <v>44182</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="C114" s="3">
         <v>44182</v>
@@ -4559,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>10</v>
@@ -4570,22 +4161,22 @@
         <v>44182</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="C115" s="3">
         <v>44182</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -4593,7 +4184,7 @@
         <v>44182</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C116" s="3">
         <v>44182</v>
@@ -4602,7 +4193,7 @@
         <v>8</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>10</v>
@@ -4613,22 +4204,22 @@
         <v>44182</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="C117" s="3">
         <v>44182</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118">
@@ -4636,13 +4227,13 @@
         <v>44183</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="C118" s="3">
         <v>44183</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>9</v>
@@ -4651,7 +4242,12 @@
         <v>1</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="B119" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -4659,22 +4255,22 @@
         <v>44183</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="C120" s="3">
         <v>44183</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121">
@@ -4682,22 +4278,22 @@
         <v>44183</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="C121" s="3">
         <v>44183</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
@@ -4705,7 +4301,7 @@
         <v>44183</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="C122" s="3">
         <v>44183</v>
@@ -4714,7 +4310,7 @@
         <v>8</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>10</v>
@@ -4725,7 +4321,7 @@
         <v>44183</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="C123" s="3">
         <v>44183</v>
@@ -4734,7 +4330,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>10</v>
@@ -4745,7 +4341,7 @@
         <v>44184</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="C124" s="3">
         <v>44184</v>
@@ -4764,14 +4360,14 @@
       <c r="A125" s="3">
         <v>44186</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>156</v>
+      <c r="B125" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C125" s="3">
         <v>44186</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>9</v>
@@ -4780,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
@@ -4788,13 +4384,13 @@
         <v>44186</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="C126" s="3">
         <v>44186</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>9</v>
@@ -4803,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
@@ -4811,13 +4407,13 @@
         <v>44186</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="C127" s="3">
         <v>44186</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>9</v>
@@ -4826,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -4834,13 +4430,13 @@
         <v>44186</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C128" s="3">
         <v>44186</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>9</v>
@@ -4849,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
@@ -4857,7 +4453,7 @@
         <v>44186</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="C129" s="3">
         <v>44186</v>
@@ -4870,6 +4466,11 @@
       </c>
       <c r="G129" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="B130" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -4877,7 +4478,7 @@
         <v>44186</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C131" s="3">
         <v>44186</v>
@@ -4897,7 +4498,7 @@
         <v>44186</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="C132" s="3">
         <v>44186</v>
@@ -4917,7 +4518,7 @@
         <v>44186</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="C133" s="3">
         <v>44186</v>
@@ -4926,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>10</v>
@@ -4937,22 +4538,22 @@
         <v>44186</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="C134" s="3">
         <v>44186</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135">
@@ -4960,7 +4561,7 @@
         <v>44186</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="C135" s="3">
         <v>44186</v>
@@ -4969,7 +4570,7 @@
         <v>8</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>10</v>
@@ -4980,22 +4581,22 @@
         <v>44186</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="C136" s="3">
         <v>44186</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137">
@@ -5003,7 +4604,7 @@
         <v>44186</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C137" s="3">
         <v>44186</v>
@@ -5012,7 +4613,7 @@
         <v>8</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>10</v>
@@ -5023,13 +4624,13 @@
         <v>44187</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="C138" s="3">
         <v>44187</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>9</v>
@@ -5038,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139">
@@ -5046,13 +4647,13 @@
         <v>44187</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="C139" s="3">
         <v>44187</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>9</v>
@@ -5061,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
@@ -5069,13 +4670,13 @@
         <v>44187</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="C140" s="3">
         <v>44187</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>9</v>
@@ -5084,7 +4685,12 @@
         <v>1</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25">
+      <c r="B141" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -5092,7 +4698,7 @@
         <v>44187</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="C142" s="3">
         <v>44187</v>
@@ -5112,7 +4718,7 @@
         <v>44187</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="C143" s="3">
         <v>44187</v>
@@ -5132,7 +4738,7 @@
         <v>44187</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="C144" s="3">
         <v>44187</v>
@@ -5152,7 +4758,7 @@
         <v>44187</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C145" s="3">
         <v>44187</v>
@@ -5172,7 +4778,7 @@
         <v>44187</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="C146" s="3">
         <v>44187</v>
@@ -5181,7 +4787,7 @@
         <v>8</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>10</v>
@@ -5192,7 +4798,7 @@
         <v>44187</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="C147" s="3">
         <v>44187</v>
@@ -5201,7 +4807,7 @@
         <v>8</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>10</v>
@@ -5212,7 +4818,7 @@
         <v>44187</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="C148" s="3">
         <v>44187</v>
@@ -5221,7 +4827,7 @@
         <v>8</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>10</v>
@@ -5232,22 +4838,22 @@
         <v>44187</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C149" s="3">
         <v>44187</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150">
@@ -5255,7 +4861,7 @@
         <v>44187</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="C150" s="3">
         <v>44187</v>
@@ -5264,7 +4870,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>10</v>
@@ -5275,7 +4881,7 @@
         <v>44187</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="C151" s="3">
         <v>44187</v>
@@ -5284,10 +4890,15 @@
         <v>8</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25">
+      <c r="B152" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -5295,7 +4906,7 @@
         <v>44188</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="C153" s="3">
         <v>44188</v>
@@ -5315,19 +4926,19 @@
         <v>44188</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C154" s="3">
         <v>44188</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155">
@@ -5335,19 +4946,19 @@
         <v>44188</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="C155" s="3">
         <v>44188</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156">
@@ -5355,19 +4966,19 @@
         <v>44188</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="C156" s="3">
         <v>44188</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157">
@@ -5375,19 +4986,19 @@
         <v>44188</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="C157" s="3">
         <v>44188</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
@@ -5395,7 +5006,7 @@
         <v>44188</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="C158" s="3">
         <v>44188</v>
@@ -5415,19 +5026,19 @@
         <v>44189</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C159" s="3">
         <v>44189</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160">
@@ -5435,19 +5046,19 @@
         <v>44194</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="C160" s="3">
         <v>44194</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
@@ -5455,7 +5066,7 @@
         <v>44194</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>195</v>
+        <v>7</v>
       </c>
       <c r="C161" s="3">
         <v>44194</v>
@@ -5475,19 +5086,24 @@
         <v>44194</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C162" s="3">
         <v>44194</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>102</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25">
+      <c r="B163" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -5495,19 +5111,19 @@
         <v>44194</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="C164" s="3">
         <v>44194</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165">
@@ -5515,19 +5131,19 @@
         <v>44194</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="C165" s="3">
         <v>44194</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166">
@@ -5535,19 +5151,19 @@
         <v>44195</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="C166" s="3">
         <v>44195</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167">
@@ -5555,7 +5171,7 @@
         <v>44195</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="C167" s="3">
         <v>44195</v>
@@ -6446,14 +6062,14 @@
   </conditionalFormatting>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="960" id="{0071008F-00DE-43F0-B95F-00FA00D30049}">
+          <x14:cfRule type="duplicateValues" priority="960" id="{00880037-0073-4001-92DA-0031000E00ED}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -6466,10 +6082,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B1 B153:B1048576 B150 C147:C150 C152 B139:B146 C134:C138 B126:B133 C121:C125 B119:B120 C115:C118 B113:B114 B109 C104:C112 B97:B103 B89 C84:C96 B81:B83 C79:C80 B77:B78 C73:C74 B69:B72 B67 C62:C68 B60:B61 C58:C59 B55:B57 B50 B46 B34:B42 C33 B28:B32 C43:C54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="644" operator="equal" id="{0004005F-00B6-463A-B619-0010006F005E}">
+          <xm:sqref>B1 B168:B1048576 C147:C150 C152 C134:C138 C121:C125 C115:C118 C104:C112 C84:C96 C79:C80 C73:C74 C62:C68 C58:C59 C33 C43:C54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="644" operator="equal" id="{005800DB-0004-495F-8D3D-00AC005C008C}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6483,7 +6099,7 @@
           <xm:sqref>D104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="366" operator="equal" id="{00AA00E8-007D-4BF4-98EF-00600020003D}">
+          <x14:cfRule type="cellIs" priority="366" operator="equal" id="{00590098-00DA-40F0-B812-0064001200A7}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6497,7 +6113,7 @@
           <xm:sqref>D8:D40 D1 D43 D45:D49 D51:D52 D55 D58:D64 D66:D73 D77 D79:D82 D88 D95:D101 D108 D111:D113 D117:D121 D124:D131 D134 D138:D146 D149 D152:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="365" operator="equal" id="{002D004F-0084-48E4-8531-00FF0086000B}">
+          <x14:cfRule type="cellIs" priority="365" operator="equal" id="{002A0082-0020-4E3D-86C6-001800070068}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -6511,7 +6127,7 @@
           <xm:sqref>D8:D40 D1 D43 D45:D49 D51:D52 D55 D58:D64 D66:D73 D77 D79:D82 D88 D95:D101 D108 D111:D113 D117:D121 D124:D131 D134 D138:D146 D149 D152:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="364" operator="equal" id="{008600B8-007C-4F28-881A-00EC00490057}">
+          <x14:cfRule type="cellIs" priority="364" operator="equal" id="{00B300B8-00D4-4927-94D6-009D00B4002E}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -6525,7 +6141,7 @@
           <xm:sqref>D8:D40 D1 D43 D45:D49 D51:D52 D55 D58:D64 D66:D73 D77 D79:D82 D88 D95:D101 D108 D111:D113 D117:D121 D124:D131 D134 D138:D146 D149 D152:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="319" id="{00BC002A-00A5-4D7F-AA5B-004600C900EB}">
+          <x14:cfRule type="duplicateValues" priority="319" id="{001000E8-005E-4A69-91A8-008200640031}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -6541,7 +6157,7 @@
           <xm:sqref>B1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="318" id="{00120064-0048-4607-841B-0060008A00C6}">
+          <x14:cfRule type="duplicateValues" priority="318" id="{008F00BA-00EA-4027-9DE1-0052004C0070}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -6557,7 +6173,7 @@
           <xm:sqref>B1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="317" id="{004000E0-00AB-44E8-A3BB-005C006400CE}">
+          <x14:cfRule type="duplicateValues" priority="317" id="{00200058-008A-42F2-82AA-000700D200F1}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C5700"/>
@@ -6573,7 +6189,7 @@
           <xm:sqref>B1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="316" id="{003400A3-0040-4D48-95B2-008700CC00F5}">
+          <x14:cfRule type="duplicateValues" priority="316" id="{00FB0019-0007-4ACA-9AE7-004F00F5003E}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -6589,7 +6205,7 @@
           <xm:sqref>B1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="271" operator="equal" id="{00550044-0083-498F-A7C3-005900E90009}">
+          <x14:cfRule type="cellIs" priority="271" operator="equal" id="{006A00E5-0073-48F9-84E6-008B009B006C}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6603,7 +6219,7 @@
           <xm:sqref>D2:D7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="270" operator="equal" id="{00BA0027-0074-42EC-ACD5-000F00A4000D}">
+          <x14:cfRule type="cellIs" priority="270" operator="equal" id="{00120076-0085-4221-AAD3-00CB003700C0}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -6617,7 +6233,7 @@
           <xm:sqref>D2:D7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="269" operator="equal" id="{00240000-004D-4E2F-977D-006D008300D8}">
+          <x14:cfRule type="cellIs" priority="269" operator="equal" id="{00460069-0099-4308-9EC8-0040007E0057}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -6631,7 +6247,7 @@
           <xm:sqref>D2:D7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="268" id="{00D10096-00E4-48C8-A08E-004100880019}">
+          <x14:cfRule type="duplicateValues" priority="268" id="{002C0053-00C4-4CC0-BFAE-00AB00B8008E}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -6647,7 +6263,23 @@
           <xm:sqref>B2:B7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="267" operator="equal" id="{008000B2-009D-4E73-A974-005900EF00CE}">
+          <x14:cfRule type="duplicateValues" priority="268" id="{001200C3-00E6-4752-B4B4-000100DE0060}">
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="267" operator="equal" id="{006A0052-006F-4413-BC6A-00F9008E001E}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -6661,7 +6293,7 @@
           <xm:sqref>D1:D40 D43 D45:D49 D51:D52 D55 D58:D64 D66:D73 D77 D79:D82 D88 D95:D101 D108 D111:D113 D117:D121 D124:D131 D134 D138:D146 D149 D152:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="260" operator="equal" id="{000D00E9-00BC-4935-AB6A-009500C10042}">
+          <x14:cfRule type="cellIs" priority="260" operator="equal" id="{00BA003B-001C-472B-8811-00B3009200ED}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6675,7 +6307,7 @@
           <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="259" operator="equal" id="{00BC0092-00CE-4CA3-A17D-00CE0056003F}">
+          <x14:cfRule type="cellIs" priority="259" operator="equal" id="{000B00C1-0066-4CAB-8B2C-001200E700D5}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -6689,7 +6321,7 @@
           <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="258" operator="equal" id="{008600EF-00B4-41B8-B4CA-001E00D30056}">
+          <x14:cfRule type="cellIs" priority="258" operator="equal" id="{00C600A8-0028-40A8-A973-006500C20044}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -6703,7 +6335,7 @@
           <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="256" operator="equal" id="{00280097-0095-4DE6-8D07-00E3004800A4}">
+          <x14:cfRule type="cellIs" priority="256" operator="equal" id="{00FE0035-0058-4911-8D40-000600A100B7}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -6717,7 +6349,7 @@
           <xm:sqref>D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="254" operator="equal" id="{00280099-003F-40E8-A0E1-0056002C0056}">
+          <x14:cfRule type="cellIs" priority="254" operator="equal" id="{00DA00D0-002F-4605-9F2F-00F400E800EA}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6731,7 +6363,7 @@
           <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="253" operator="equal" id="{008C00F5-0029-4B36-BB39-009600670095}">
+          <x14:cfRule type="cellIs" priority="253" operator="equal" id="{008D00CD-0030-4248-B0E8-006F00E20016}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -6745,7 +6377,7 @@
           <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="252" operator="equal" id="{006C003A-009A-4FC8-A952-00AB001300FC}">
+          <x14:cfRule type="cellIs" priority="252" operator="equal" id="{00120061-00CC-415B-B0C5-0023003200F2}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -6759,7 +6391,7 @@
           <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{000900F1-001A-46B2-ABE9-0083001D00E3}">
+          <x14:cfRule type="cellIs" priority="251" operator="equal" id="{00A9007D-0011-4FBF-848B-00DC0067006D}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -6773,7 +6405,7 @@
           <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{001C0057-002E-4987-BA8D-009500470047}">
+          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{00B700D9-008F-4BA0-8CD2-00BF007100FA}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6787,7 +6419,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{00130058-004A-4217-9A7E-005500EE0096}">
+          <x14:cfRule type="cellIs" priority="247" operator="equal" id="{006A0047-0046-4478-A8AA-007900480072}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -6801,7 +6433,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{00810091-0002-4C9E-B3D5-00C80003005D}">
+          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{00A400E6-0065-4137-A065-0004006B0079}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -6815,7 +6447,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="245" operator="equal" id="{007600DB-003B-452F-871F-004A00140020}">
+          <x14:cfRule type="cellIs" priority="245" operator="equal" id="{00CE0035-00A0-48D4-A930-002300C200CC}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -6829,7 +6461,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="243" operator="equal" id="{00350026-00FD-4F9F-9148-00A500700082}">
+          <x14:cfRule type="cellIs" priority="243" operator="equal" id="{00F60068-00A6-4684-AFAB-00CD00F40011}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6843,7 +6475,7 @@
           <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="242" operator="equal" id="{00220015-0059-4DC5-A4DC-0001007B00EB}">
+          <x14:cfRule type="cellIs" priority="242" operator="equal" id="{00A100D0-00F8-4028-851A-00B000E100EE}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -6857,7 +6489,7 @@
           <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="241" operator="equal" id="{0000007C-00D9-45E0-86EE-004800DD005D}">
+          <x14:cfRule type="cellIs" priority="241" operator="equal" id="{0006003E-005B-453A-A2B5-007500D40063}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -6871,7 +6503,7 @@
           <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{00830093-00AE-4701-9745-00D200C600EE}">
+          <x14:cfRule type="cellIs" priority="239" operator="equal" id="{001200BF-00C7-4001-A7F1-00920061001D}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -6885,7 +6517,7 @@
           <xm:sqref>D50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="237" operator="equal" id="{002000F2-00B3-4735-ADFE-008D0038001E}">
+          <x14:cfRule type="cellIs" priority="237" operator="equal" id="{00200035-002C-4E32-B764-00C4008C00BB}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6899,7 +6531,7 @@
           <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{00AA0015-0038-494D-AA5B-002200F3002E}">
+          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{004100D7-0056-45DE-A70E-008600E6000E}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -6913,7 +6545,7 @@
           <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{002500F5-0021-4A37-869E-00A5005D0015}">
+          <x14:cfRule type="cellIs" priority="235" operator="equal" id="{00C4006B-0019-46A7-8B10-00DB004C002B}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -6927,7 +6559,7 @@
           <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{0094006B-00D5-4376-9121-004200C800E7}">
+          <x14:cfRule type="cellIs" priority="233" operator="equal" id="{0080008F-0075-4DC4-A271-00B600FD007B}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -6941,7 +6573,7 @@
           <xm:sqref>D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="231" operator="equal" id="{00D90063-0044-4BAB-897C-005200F8000D}">
+          <x14:cfRule type="cellIs" priority="231" operator="equal" id="{008D0055-00F5-417F-B473-00BF00530002}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -6955,7 +6587,7 @@
           <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="230" operator="equal" id="{00D3002F-00E2-4BBE-9D39-00CC00860038}">
+          <x14:cfRule type="cellIs" priority="230" operator="equal" id="{005D00FA-009A-4432-B48E-00C300DB00DB}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -6969,7 +6601,7 @@
           <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{00DC009B-00BE-41F5-88E6-00C900D4003F}">
+          <x14:cfRule type="cellIs" priority="229" operator="equal" id="{00690052-002D-4CEE-8FA2-00C200D500E6}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -6983,7 +6615,7 @@
           <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{00C00091-002F-4AB2-BA16-00C400DD0086}">
+          <x14:cfRule type="cellIs" priority="227" operator="equal" id="{007F006F-0075-477D-B797-00E60008002B}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -6997,7 +6629,7 @@
           <xm:sqref>D54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{005F00AD-0066-4527-920A-000300E30028}">
+          <x14:cfRule type="cellIs" priority="223" operator="equal" id="{00FF00D5-0009-4E24-9051-00B4002F00C8}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7011,7 +6643,7 @@
           <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{009B007E-0013-455B-8D9F-00E4007900EC}">
+          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{00190073-00B2-4633-A117-00B8009800E4}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7025,7 +6657,7 @@
           <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="221" operator="equal" id="{008C00B8-00AD-4A05-96A3-0011004700E7}">
+          <x14:cfRule type="cellIs" priority="221" operator="equal" id="{008E00DF-00F9-4463-8D1B-00A700350087}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7039,7 +6671,7 @@
           <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="219" operator="equal" id="{00D400FD-0019-4EAC-995B-0088007C008A}">
+          <x14:cfRule type="cellIs" priority="219" operator="equal" id="{000200FE-00ED-443A-9C94-007D00C50001}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7053,7 +6685,7 @@
           <xm:sqref>D56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{00530083-0054-4566-B27F-00A7000000FC}">
+          <x14:cfRule type="cellIs" priority="217" operator="equal" id="{009F003F-001E-42BB-A6BD-004900B2001C}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7067,7 +6699,7 @@
           <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{006300C4-007B-497B-9073-00FD006800CE}">
+          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{00300003-0029-42A9-8D22-00B600F700B7}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7081,7 +6713,7 @@
           <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{000D0054-00F8-4E83-B690-003F00D600C2}">
+          <x14:cfRule type="cellIs" priority="215" operator="equal" id="{00A40050-0084-44A3-8384-00A500AA005F}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7095,7 +6727,7 @@
           <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{00F200F4-0047-43F6-A113-004A00DC0074}">
+          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{00D60085-0021-4ABA-96C4-002300CD0049}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7109,7 +6741,7 @@
           <xm:sqref>D57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{00BE0001-009A-44F0-862A-0016009C0047}">
+          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{00A4002D-0055-4AED-9E31-001600CF00D3}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7123,7 +6755,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{003C00E0-00AC-417A-AA79-00E800FE0002}">
+          <x14:cfRule type="cellIs" priority="211" operator="equal" id="{006C0025-0092-420D-9275-008E00E3004C}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7137,7 +6769,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="210" operator="equal" id="{008C0013-0058-4E18-9F4F-000400200082}">
+          <x14:cfRule type="cellIs" priority="210" operator="equal" id="{00990084-007E-464F-B1A7-002E00CB003C}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7151,7 +6783,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="209" operator="equal" id="{00EC001D-00A1-42A5-8098-00AD005D0035}">
+          <x14:cfRule type="cellIs" priority="209" operator="equal" id="{009B00DC-00A2-4DC8-AF40-001C00A7004B}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7165,7 +6797,7 @@
           <xm:sqref>D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{00D000EC-009B-43CE-8580-009A0034003D}">
+          <x14:cfRule type="cellIs" priority="207" operator="equal" id="{00950003-0057-4248-9787-002900F30071}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7179,7 +6811,7 @@
           <xm:sqref>D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{00030050-002E-4481-A6DA-004D00D4009A}">
+          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{006000B3-00B0-4823-90B7-008A0091003A}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7193,7 +6825,7 @@
           <xm:sqref>D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{00E200F2-001C-4EAD-BEA2-00090055004E}">
+          <x14:cfRule type="cellIs" priority="205" operator="equal" id="{00AB0063-00C4-4A5F-859C-004000E1007B}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7207,7 +6839,7 @@
           <xm:sqref>D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{007E000B-002B-4D41-9BA4-000D009F0079}">
+          <x14:cfRule type="cellIs" priority="203" operator="equal" id="{009300D0-008D-4522-9F9E-00B10080006C}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7221,7 +6853,7 @@
           <xm:sqref>D74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{00DB00FD-0099-4041-A42B-00AC00A5005F}">
+          <x14:cfRule type="cellIs" priority="201" operator="equal" id="{008B005E-00F4-4250-8ACA-00F100F90080}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7235,7 +6867,7 @@
           <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{00C600F2-003F-4F78-A041-00EF004A006D}">
+          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{00130009-0086-4598-B5BE-00D200E80086}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7249,7 +6881,7 @@
           <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="199" operator="equal" id="{00900024-001F-4E17-AC6B-002C00FB0094}">
+          <x14:cfRule type="cellIs" priority="199" operator="equal" id="{007A0072-0041-430E-8C00-00DE00490067}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7263,7 +6895,7 @@
           <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="198" operator="equal" id="{00BC007E-00BA-4D5D-8C4D-00AF003200BE}">
+          <x14:cfRule type="cellIs" priority="198" operator="equal" id="{00310076-007E-4CB0-9848-00AE002300C1}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7277,7 +6909,7 @@
           <xm:sqref>D75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{0031007B-00E6-4FC3-8852-00E9002A005F}">
+          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{00E20053-0058-405C-BC01-00FA00680078}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7291,7 +6923,7 @@
           <xm:sqref>D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="193" operator="equal" id="{003E006F-0011-48AA-A010-001F006A0030}">
+          <x14:cfRule type="cellIs" priority="193" operator="equal" id="{001300EC-0095-43AC-B180-008C00260040}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7305,7 +6937,7 @@
           <xm:sqref>D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{007900B4-00A5-42BB-88DE-0080009C000C}">
+          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{00CD0067-004C-4F0C-AD6E-00DA00CA00DF}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7319,7 +6951,7 @@
           <xm:sqref>D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{007C00F0-00F7-471D-A1BC-0079006300D7}">
+          <x14:cfRule type="cellIs" priority="191" operator="equal" id="{000C0051-0027-4294-811F-00B10015006F}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7333,7 +6965,7 @@
           <xm:sqref>D76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="189" operator="equal" id="{00EF0016-0098-43BF-9C4B-001D00D90021}">
+          <x14:cfRule type="cellIs" priority="189" operator="equal" id="{00E300CE-0028-4FA3-87F9-00D4004B008F}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7347,7 +6979,7 @@
           <xm:sqref>D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="188" operator="equal" id="{005300EB-0008-4247-8889-009800350003}">
+          <x14:cfRule type="cellIs" priority="188" operator="equal" id="{00CF000D-00A9-4DF0-9085-00BC005A004E}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7361,7 +6993,7 @@
           <xm:sqref>D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="187" operator="equal" id="{00E800D8-002B-4511-BBE8-0077006C00A4}">
+          <x14:cfRule type="cellIs" priority="187" operator="equal" id="{00A4004D-0023-4234-AB8E-00BC00E80073}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7375,7 +7007,7 @@
           <xm:sqref>D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="186" operator="equal" id="{006A0027-000C-4B48-9F36-001C0051008E}">
+          <x14:cfRule type="cellIs" priority="186" operator="equal" id="{00B500D8-0015-4125-8550-00C400FE0038}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7389,7 +7021,7 @@
           <xm:sqref>D78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{00E00093-0065-4ADD-9CA5-004F004400E5}">
+          <x14:cfRule type="cellIs" priority="183" operator="equal" id="{002300E6-006F-44D5-B4CA-00A100AD0060}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7403,7 +7035,7 @@
           <xm:sqref>D83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{00D80035-0078-4C34-96DD-008D002C009A}">
+          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{00BF0089-002A-494C-A038-001D00A300CA}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7417,7 +7049,7 @@
           <xm:sqref>D83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{006500DD-000F-4AD7-AE0D-003700AC00E4}">
+          <x14:cfRule type="cellIs" priority="181" operator="equal" id="{00A000EB-008C-4D68-86E9-003F00450012}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7431,7 +7063,7 @@
           <xm:sqref>D83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{00EA0013-0037-4905-A3C4-001000F90061}">
+          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{00240064-0045-4EC4-A411-006D00AF008A}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7445,7 +7077,7 @@
           <xm:sqref>D83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{00620039-0022-4AC7-8A61-008E0062007C}">
+          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{003F00EA-000D-4275-9AE1-0027000500F2}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7459,7 +7091,7 @@
           <xm:sqref>D84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="177" operator="equal" id="{0023005A-0078-403E-9284-004300C6004E}">
+          <x14:cfRule type="cellIs" priority="177" operator="equal" id="{004400BC-0082-4132-B882-00F9000700B0}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7473,7 +7105,7 @@
           <xm:sqref>D84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="176" operator="equal" id="{00010060-00F6-44A0-8E1A-001800910024}">
+          <x14:cfRule type="cellIs" priority="176" operator="equal" id="{001100CF-0076-4F87-89A9-008B00FB00C7}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7487,7 +7119,7 @@
           <xm:sqref>D84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{002400DF-00BE-40A8-A0E8-00AB007000EF}">
+          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{0074000D-0025-4882-8AC9-00C0003C0025}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7501,7 +7133,7 @@
           <xm:sqref>D84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{00DE004A-00B6-4C90-A779-007D006E0021}">
+          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{00F200DE-0026-4142-AAF7-003C0034002A}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7515,7 +7147,7 @@
           <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{002B00DD-00BA-4B06-B558-0060008E007C}">
+          <x14:cfRule type="cellIs" priority="171" operator="equal" id="{002000A4-00AB-4459-B82B-00EF00D7002E}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7529,7 +7161,7 @@
           <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{00DB00ED-0087-4CEC-8867-002600F6004B}">
+          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{00CC003E-001F-47A6-816A-004F003000A6}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7543,7 +7175,7 @@
           <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{007700C3-00B0-4B56-832A-00D0009800F7}">
+          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{004E0052-00C3-4223-9209-00B500FE005B}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7557,7 +7189,7 @@
           <xm:sqref>D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="166" operator="equal" id="{0072008C-00AA-46F6-8D8F-00600040001E}">
+          <x14:cfRule type="cellIs" priority="166" operator="equal" id="{00E2002C-00CC-41B4-86FA-00ED008E00F7}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7571,7 +7203,7 @@
           <xm:sqref>D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="165" operator="equal" id="{00F1006A-000A-45A6-B3EF-002D00EC0038}">
+          <x14:cfRule type="cellIs" priority="165" operator="equal" id="{006C001D-00E7-4EC6-94D8-0042001B00A3}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7585,7 +7217,7 @@
           <xm:sqref>D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="164" operator="equal" id="{000F00C8-00C9-4717-B6D1-00DC00900000}">
+          <x14:cfRule type="cellIs" priority="164" operator="equal" id="{00E70089-00D7-4B8C-8139-0099006D0017}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7599,7 +7231,7 @@
           <xm:sqref>D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{0066002F-0072-4248-A092-00AE00980061}">
+          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{00F90047-0017-4D02-8C4D-00C5003F00D5}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7613,7 +7245,7 @@
           <xm:sqref>D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{0072001B-00A0-4D3A-A861-0014008F00B2}">
+          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{00A4003C-005F-4300-95DA-0033003400A5}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7627,7 +7259,7 @@
           <xm:sqref>D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{00530023-001B-4B53-9DED-00B10048008C}">
+          <x14:cfRule type="cellIs" priority="159" operator="equal" id="{007C00AC-00BE-4965-8DDD-00A1007E007A}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7641,7 +7273,7 @@
           <xm:sqref>D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{002B00D2-0008-4DC9-946B-0040000000AC}">
+          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{00F1009F-00C3-4B1C-BF5E-003A0045002B}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7655,7 +7287,7 @@
           <xm:sqref>D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{00A5004F-0012-43F3-8222-00E3008100A0}">
+          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{002000FE-0031-4A7B-84D1-00EA00640002}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7669,7 +7301,7 @@
           <xm:sqref>D87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="155" operator="equal" id="{0091004E-006A-4504-821F-004E006400A2}">
+          <x14:cfRule type="cellIs" priority="155" operator="equal" id="{000A000A-00B5-4C90-B08E-007900310066}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7683,7 +7315,7 @@
           <xm:sqref>D89:D90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="154" operator="equal" id="{00C70059-00E7-481B-BDE6-00C3000000B2}">
+          <x14:cfRule type="cellIs" priority="154" operator="equal" id="{00950016-00F6-476A-925C-004A00AB0034}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7697,7 +7329,7 @@
           <xm:sqref>D89:D90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="153" operator="equal" id="{004100DB-005D-44A1-8A2D-008B009900E7}">
+          <x14:cfRule type="cellIs" priority="153" operator="equal" id="{00160048-00EC-4713-9FE9-004D0050003B}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7711,7 +7343,7 @@
           <xm:sqref>D89:D90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{00730077-007A-45D1-8F1B-002A00BE00DE}">
+          <x14:cfRule type="cellIs" priority="151" operator="equal" id="{00CA00EB-0018-4464-88F7-001A00330050}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7725,7 +7357,7 @@
           <xm:sqref>D89:D90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{00E20073-009D-442F-930D-004F00C500DE}">
+          <x14:cfRule type="cellIs" priority="147" operator="equal" id="{004E00E3-003B-4E1A-8ABF-003100640049}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7739,7 +7371,7 @@
           <xm:sqref>D91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{00050080-0040-4E1E-928E-00E70037009D}">
+          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{005E00E6-00FD-4F23-8847-00E7002D00E7}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7753,7 +7385,7 @@
           <xm:sqref>D91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{004700BC-0091-4869-BCA6-00B5000B00D9}">
+          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{006F0077-00FE-471F-8448-00B50033004D}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7767,7 +7399,7 @@
           <xm:sqref>D91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="143" operator="equal" id="{003E0093-0090-4B60-B0D3-001900E6004F}">
+          <x14:cfRule type="cellIs" priority="143" operator="equal" id="{00F30060-0025-4BAA-B4D4-003A00910031}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7781,7 +7413,7 @@
           <xm:sqref>D91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{001D0067-0094-4A80-AEAD-002100E20055}">
+          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{00B300F2-00B0-4ECC-9261-00CD0091008A}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7795,7 +7427,7 @@
           <xm:sqref>D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{006800EE-0057-428F-BF1F-00D6004E00CB}">
+          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{00240060-00EB-40D7-A901-000400D900DE}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7809,7 +7441,7 @@
           <xm:sqref>D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{00840013-009F-4135-BE42-00E300A40062}">
+          <x14:cfRule type="cellIs" priority="139" operator="equal" id="{004400AD-00FC-4713-8B3B-00850015001E}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7823,7 +7455,7 @@
           <xm:sqref>D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{00110024-0038-4FBC-8F25-00A5002C0085}">
+          <x14:cfRule type="cellIs" priority="137" operator="equal" id="{0097002B-003A-460D-A268-00DA00E8008E}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7837,7 +7469,7 @@
           <xm:sqref>D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{00A500B8-00FD-4ADA-AA50-00960045001B}">
+          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{0087004B-002D-48A9-9287-003B00F800CB}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7851,7 +7483,7 @@
           <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="133" operator="equal" id="{00480043-007D-4CE6-B150-008F008F004C}">
+          <x14:cfRule type="cellIs" priority="133" operator="equal" id="{00590002-00E8-453A-B661-0088004F0007}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7865,7 +7497,7 @@
           <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{004B00DB-0027-41C5-82F1-001400260021}">
+          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{00120056-0044-4584-B027-0097008800FE}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7879,7 +7511,7 @@
           <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="131" operator="equal" id="{00D30020-0055-4AB8-82D7-003100800053}">
+          <x14:cfRule type="cellIs" priority="131" operator="equal" id="{003500D1-0076-446A-A1AD-004A0030002C}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7893,7 +7525,7 @@
           <xm:sqref>D93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{0000001A-0027-46B4-B916-006E00B7009B}">
+          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{0041009E-0017-433A-87B5-00CC000D006E}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7907,7 +7539,7 @@
           <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{004800E4-001F-4827-B16D-00DB00A900B6}">
+          <x14:cfRule type="cellIs" priority="127" operator="equal" id="{000D00FA-0022-450F-8C8D-001F00270067}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7921,7 +7553,7 @@
           <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{00720056-007A-401F-B0D5-009F00F80045}">
+          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{00020041-0075-42D6-A10F-001F009100AA}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7935,7 +7567,7 @@
           <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{00770086-00A2-44DC-BCEC-0081008700FA}">
+          <x14:cfRule type="cellIs" priority="125" operator="equal" id="{00700044-000E-4101-8486-003C008B00A5}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -7949,7 +7581,7 @@
           <xm:sqref>D94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{00D1000E-0007-461B-B2B6-00EC00F40059}">
+          <x14:cfRule type="cellIs" priority="123" operator="equal" id="{008F0097-0026-4528-964A-00870010001B}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -7963,7 +7595,7 @@
           <xm:sqref>D102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="122" operator="equal" id="{004E0020-0052-4408-B8BD-006D00E900B0}">
+          <x14:cfRule type="cellIs" priority="122" operator="equal" id="{0082006A-002B-41D8-A75E-003000B6004D}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -7977,7 +7609,7 @@
           <xm:sqref>D102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="121" operator="equal" id="{003300DC-00AF-4D39-B1C5-005900BF004A}">
+          <x14:cfRule type="cellIs" priority="121" operator="equal" id="{00A30095-00F2-4FFE-BEA3-00B1008900BC}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -7991,7 +7623,7 @@
           <xm:sqref>D102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{0059008A-006B-4B00-9E17-00E5005E0036}">
+          <x14:cfRule type="cellIs" priority="119" operator="equal" id="{00FA00EF-00F6-49DF-A5B4-00B200D1007D}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8005,7 +7637,7 @@
           <xm:sqref>D102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{002E004D-0074-407D-B735-006600760060}">
+          <x14:cfRule type="cellIs" priority="117" operator="equal" id="{00E900BD-00E7-4B9C-AE8F-005000760006}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8019,7 +7651,7 @@
           <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{005700B4-0025-400C-9D68-000500BA005E}">
+          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{00D500F8-00B0-4819-831A-004600EE009D}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8033,7 +7665,7 @@
           <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{00F20050-009D-4DBC-896A-00C1000D00E4}">
+          <x14:cfRule type="cellIs" priority="115" operator="equal" id="{001900DA-00FD-4D9B-85BD-006800A90039}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8047,7 +7679,7 @@
           <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{00010054-008F-4CA1-B7DC-0005003600FB}">
+          <x14:cfRule type="cellIs" priority="113" operator="equal" id="{008800A8-0087-4682-B43A-0098008C00CE}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8061,7 +7693,7 @@
           <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{008D00B1-00CA-462F-BFCE-007D00BB0005}">
+          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{007D0083-0074-4ADF-9AF5-00B700F800FD}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8075,7 +7707,7 @@
           <xm:sqref>D104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{00C000E8-00A8-45DC-A2C4-00F400B60084}">
+          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{00B20051-00EB-4179-99B5-00F300C90062}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8089,7 +7721,7 @@
           <xm:sqref>D104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{00420065-002E-4546-963E-00DE00A900B6}">
+          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{00840049-00C3-46B6-B603-00E900B90095}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8103,7 +7735,7 @@
           <xm:sqref>D104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{00FE0007-0092-4CF9-9FAD-003D006A0064}">
+          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{0066005A-00DB-4768-8D7D-003200E1004F}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8117,7 +7749,7 @@
           <xm:sqref>D105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{00D3000A-0032-454E-844D-00810084004D}">
+          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{00E80030-0083-4585-8622-0000001100D3}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8131,7 +7763,7 @@
           <xm:sqref>D105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{005C0085-004C-4DA6-863F-006400FE00E9}">
+          <x14:cfRule type="cellIs" priority="103" operator="equal" id="{00A30079-00B4-4C0E-9BD8-00630023004D}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8145,7 +7777,7 @@
           <xm:sqref>D105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{00F6007D-0034-4592-A5DE-00CF006300F5}">
+          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{007500A8-001D-4B26-BCEB-00D40062006D}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8159,7 +7791,7 @@
           <xm:sqref>D105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="99" operator="equal" id="{009A0095-0004-4D4D-ACBB-00FC00BB009E}">
+          <x14:cfRule type="cellIs" priority="99" operator="equal" id="{008900CD-00A1-40B5-9EF6-004700DA00FF}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8173,7 +7805,7 @@
           <xm:sqref>D106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="98" operator="equal" id="{003200AA-0020-4249-AE3F-001600170088}">
+          <x14:cfRule type="cellIs" priority="98" operator="equal" id="{009E001F-006C-4051-BE6F-003C00CD00B2}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8187,7 +7819,7 @@
           <xm:sqref>D106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{004F0021-007D-475A-BB8D-00F7000E001E}">
+          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{00A50041-00DD-4F37-A61B-00640083008F}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8201,7 +7833,7 @@
           <xm:sqref>D106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{00C20069-0008-4C24-A419-008A00F000E0}">
+          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{003100DB-0070-4332-A018-00C800150040}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8215,7 +7847,7 @@
           <xm:sqref>D106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{00F200AA-00EF-4B69-9ECD-0059006500C3}">
+          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{00750089-0066-44C3-A400-00990022004B}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8229,7 +7861,7 @@
           <xm:sqref>D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{00FF0082-0073-47E1-9604-00C900C00006}">
+          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{00C00023-00CC-4031-898D-00AD00C50034}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8243,7 +7875,7 @@
           <xm:sqref>D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{00D7002A-00E6-4CF6-B120-00C400790081}">
+          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{00A5002C-009F-4C65-9BAA-005E0087004F}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8257,7 +7889,7 @@
           <xm:sqref>D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{007F00BD-00B2-4ABC-9811-004900B400D6}">
+          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{00B00018-00E6-4965-9D00-000B00F400B4}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8271,7 +7903,7 @@
           <xm:sqref>D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{000C0073-0039-4406-8A27-008F00170018}">
+          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{004B0042-003A-4B17-A9B0-00B000B10009}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8285,7 +7917,7 @@
           <xm:sqref>D110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{003000DA-00DD-4CAF-A7E0-005B003C00FA}">
+          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{000B00F1-00F3-49BB-8F31-00D000EF00FF}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8299,7 +7931,7 @@
           <xm:sqref>D110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{005B0024-0035-4885-A603-000B009F0057}">
+          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{00A20085-00BE-47EE-80AA-0092004F007B}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8313,7 +7945,7 @@
           <xm:sqref>D114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{00380026-0014-4820-957A-0056006E00EA}">
+          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{007F00C7-00A1-4376-B594-0089009000B2}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8327,7 +7959,7 @@
           <xm:sqref>D114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{00E9003D-002D-49EF-A5F9-00BA00B5002B}">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{00B100B5-008E-41B2-8B55-004C00780052}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8341,7 +7973,7 @@
           <xm:sqref>D115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{00CD004A-009E-4E76-AB3B-00C40098006A}">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{00F40043-00D4-4979-A45B-00E20085007D}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8355,7 +7987,7 @@
           <xm:sqref>D115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{0075001E-003F-4A8B-8A74-001A0055003D}">
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{004600B4-0059-4B93-8928-00D400D50023}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8369,7 +8001,7 @@
           <xm:sqref>D115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{00B30006-0041-4F88-9B54-001B007400AD}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{003000DF-0025-4CDE-BF83-005D003D00E9}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8383,7 +8015,7 @@
           <xm:sqref>D115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{005700CF-0021-4BED-BF17-00E400C000F7}">
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{00360000-004F-47B9-B507-009A002B009D}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8397,7 +8029,7 @@
           <xm:sqref>D116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{006F00FD-00BB-4931-8FD3-0071009300BA}">
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{00DA0041-00B2-4FB7-B135-006E00E300D4}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8411,7 +8043,7 @@
           <xm:sqref>D116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{00030010-004F-4E56-91AF-003100170010}">
+          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{00570061-00A1-4B6E-A723-00EC00150087}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8425,7 +8057,7 @@
           <xm:sqref>D107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{00640000-00D7-456D-9E2D-00D1002C00C4}">
+          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{008000ED-0096-42E3-9BB7-00B700BE00DE}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8439,7 +8071,7 @@
           <xm:sqref>D107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{00C000DC-0019-4906-B463-004A00E40097}">
+          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{00AB00B0-00D0-40D6-B16F-00CF008700C1}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8453,7 +8085,7 @@
           <xm:sqref>D107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{0018004D-00ED-4208-B864-00F0004D00AC}">
+          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{00580044-003A-47D0-B4E6-00F8001E00B3}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8467,7 +8099,7 @@
           <xm:sqref>D107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{0092005E-00C4-41CE-A96D-00B4007E0004}">
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{00B00015-00D4-47D2-8CD3-00730031004F}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8481,7 +8113,7 @@
           <xm:sqref>D122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{009D00C2-00DE-4706-87AE-00DE002F00F0}">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{002300F6-005B-4662-ABF6-006D00CC0092}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8495,7 +8127,7 @@
           <xm:sqref>D122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{00D30089-00FE-4426-8C9F-0022000D00C3}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{00490064-004D-4E96-9586-009D00C600E2}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8509,7 +8141,7 @@
           <xm:sqref>D123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{006A006B-00FE-4466-9F99-00B10079004B}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{00E60094-00F7-4996-96A2-00B3005C006C}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8523,7 +8155,7 @@
           <xm:sqref>D123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{00D400DC-0024-4FE4-B90C-00C5001F007C}">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{006E00AB-00B9-46DB-811A-00A400070028}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8537,7 +8169,7 @@
           <xm:sqref>D132:D133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{005C00F7-00F5-4999-A69C-003200BB0053}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{0056000C-00DA-4F73-842A-00E400180086}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8551,7 +8183,7 @@
           <xm:sqref>D132:D133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{006200FB-00AE-4B17-98AB-002500190002}">
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{0063007F-0073-43F7-B985-000F00A900A0}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8565,7 +8197,7 @@
           <xm:sqref>D132:D133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{002700F8-0021-4EAA-B575-00B500AC0027}">
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{0052004C-0034-432A-8190-009F003200CF}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8579,7 +8211,7 @@
           <xm:sqref>D132:D133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{003500F9-004E-43E1-83EA-007100BD0040}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{002F0085-00F8-46A9-94CA-004D00F0003B}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8593,7 +8225,7 @@
           <xm:sqref>D135</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{002200FF-0086-4F20-BBFC-008F002B0009}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{00E400DA-0024-4343-ADFE-001800690010}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8607,7 +8239,7 @@
           <xm:sqref>D135</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{00FA001A-0046-4BD3-9155-004B002400A0}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{002B0027-009A-475C-8FA4-001A00E900CD}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8621,7 +8253,7 @@
           <xm:sqref>D135</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{003100C4-0080-4CF0-842B-008800CF00F3}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{00360049-00DD-41FB-BFC6-009100C700CC}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8635,7 +8267,7 @@
           <xm:sqref>D135</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{008D0054-004E-4384-AB75-00550036003D}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{009E00A6-00D2-428E-8F95-004D009600CD}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8649,7 +8281,7 @@
           <xm:sqref>D136</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{000900BD-002E-4269-A275-002F00E3007A}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{00B00063-00FC-44E2-B362-002200BE003B}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8663,7 +8295,7 @@
           <xm:sqref>D136</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{00410020-00DB-484E-9795-00C100080053}">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{00E4006D-009C-4017-99D8-0074007D00E5}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8677,7 +8309,7 @@
           <xm:sqref>D136</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{006600CC-00A3-4828-96F7-00DF00A800AA}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{00A90094-0023-47DC-A3B8-00DA00FE0063}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8691,7 +8323,7 @@
           <xm:sqref>D136</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{00EA00EA-00D9-4970-A9E1-0085002100D9}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{00F000E6-00C7-45B4-89FA-002000E200B9}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8705,7 +8337,7 @@
           <xm:sqref>D137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{009B002F-0041-4748-A773-0084001A00BC}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{00EA0018-00D2-4A05-A9B9-006F00080085}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8719,7 +8351,7 @@
           <xm:sqref>D137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{007500D9-00E2-4BCB-B9D1-00C100F00049}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{008B004B-0099-4528-BA8A-002C008C004F}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8733,7 +8365,7 @@
           <xm:sqref>D137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{00350019-00DC-415C-9494-001000B8008A}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{0002001D-007E-4349-A9ED-00E900250097}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8747,7 +8379,7 @@
           <xm:sqref>D137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{00330058-007D-4177-8539-0093009E00FE}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{008A0004-0030-4004-8FFD-004A003D0060}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8761,7 +8393,7 @@
           <xm:sqref>D147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{0067007B-0087-401E-9B8A-005800DC0097}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{00950028-000A-4445-9E3E-00F200730038}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8775,7 +8407,7 @@
           <xm:sqref>D147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{00A900B8-00D9-401F-AE4A-00FF003D0077}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{0084004A-0047-46ED-ADE8-00FC00540096}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8789,7 +8421,7 @@
           <xm:sqref>D147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{00A30023-0075-42A5-A834-005C00C80091}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{001200B8-0015-49B2-A378-00F80034006C}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8803,7 +8435,7 @@
           <xm:sqref>D147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{00CB00BD-0069-4633-B3F0-001100B60013}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{006A00E1-002B-4332-983E-002600020052}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8817,7 +8449,7 @@
           <xm:sqref>D148</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{001500CB-0026-459D-876D-00AB00160045}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{00730079-00D0-44DD-BBFD-00A800D3009E}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8831,7 +8463,7 @@
           <xm:sqref>D148</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{0035002C-000F-43A3-9EA9-005700CA0063}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{00280095-007D-4EBC-AB0A-003200750024}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8845,7 +8477,7 @@
           <xm:sqref>D148</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{00110020-0045-4EFE-BB41-0022008800D8}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{00F50075-0096-42A2-A856-00DE008D00B1}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8859,7 +8491,7 @@
           <xm:sqref>D148</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{00DF00FA-0059-4A9A-8396-009C003100FB}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{00650034-002D-4EC6-9372-004C009B0098}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8873,7 +8505,7 @@
           <xm:sqref>D150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{002F0022-000E-41CB-85F8-004300A5006F}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{00D00050-00C2-4DAC-9107-004900DC0000}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8887,7 +8519,7 @@
           <xm:sqref>D150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{006100B1-00DD-4889-94B3-00B1007900D8}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{00B1001B-0077-4800-9F44-00E100830037}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8901,7 +8533,7 @@
           <xm:sqref>D150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{00140075-00FE-4B19-9043-00DE00D30066}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{0027009C-0089-498F-A365-001400F90004}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
@@ -8915,7 +8547,7 @@
           <xm:sqref>D150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00DA00A8-003D-4D6B-926B-00430011002F}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00150050-0026-4215-8AE8-00F100E80024}">
             <xm:f>"Pass"</xm:f>
             <x14:dxf>
               <fill>
@@ -8929,7 +8561,7 @@
           <xm:sqref>D151</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00D200DD-0009-43F9-84B9-00E700EB00E2}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0092007F-0042-4D5B-B81D-00F200990002}">
             <xm:f>"Progress"</xm:f>
             <x14:dxf>
               <fill>
@@ -8943,7 +8575,7 @@
           <xm:sqref>D151</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D2006D-00FF-426C-A943-004E008E0083}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00DC0076-00A0-49D8-8C25-0085006100C5}">
             <xm:f>"Fail"</xm:f>
             <x14:dxf>
               <fill>
@@ -8957,7 +8589,7 @@
           <xm:sqref>D151</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00780000-00AB-4349-9EE2-0036004B00D2}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00380051-001F-4A13-91E2-0083008A009A}">
             <xm:f>"NOT TESTED"</xm:f>
             <x14:dxf>
               <fill>
